--- a/REVER_DailyTracker_20200511.xlsx
+++ b/REVER_DailyTracker_20200511.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\MVS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nprem\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DF60288-5142-436E-8040-0BA4F39A959A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{859090A9-DFE8-42EC-AAB5-63B1A92A1E90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BDBCA639-774E-4870-AA16-72178DF9137C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="7" xr2:uid="{BDBCA639-774E-4870-AA16-72178DF9137C}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <sheet name="Rahman" sheetId="14" r:id="rId9"/>
     <sheet name="Mathes" sheetId="13" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="191029" iterate="1"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="21">
   <si>
     <t>Task</t>
   </si>
@@ -102,6 +102,12 @@
   <si>
     <t>data insertion  and email sending are completed, whereas we have tested email sending using gmail.com for contacts.html.
 We are waiting for actual email settings for hayaai site.</t>
+  </si>
+  <si>
+    <t>mui store</t>
+  </si>
+  <si>
+    <t>CSS</t>
   </si>
 </sst>
 </file>
@@ -563,7 +569,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
@@ -1146,7 +1152,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1493,8 +1499,8 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1532,12 +1538,24 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="3"/>
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6">
+        <v>43962</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">

--- a/REVER_DailyTracker_20200511.xlsx
+++ b/REVER_DailyTracker_20200511.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nprem\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Document\WBS\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{859090A9-DFE8-42EC-AAB5-63B1A92A1E90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3AE5E13-9810-4DC4-ADAF-C7A164090964}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="7" xr2:uid="{BDBCA639-774E-4870-AA16-72178DF9137C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{BDBCA639-774E-4870-AA16-72178DF9137C}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <sheet name="Rahman" sheetId="14" r:id="rId9"/>
     <sheet name="Mathes" sheetId="13" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" iterate="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="28">
   <si>
     <t>Task</t>
   </si>
@@ -108,6 +108,27 @@
   </si>
   <si>
     <t>CSS</t>
+  </si>
+  <si>
+    <t>MujiStore</t>
+  </si>
+  <si>
+    <t>Subnet Integration for Troubleshooting</t>
+  </si>
+  <si>
+    <t>Code Merging</t>
+  </si>
+  <si>
+    <t>Multi language integration get from Prabhu, Menu Integration from Ram</t>
+  </si>
+  <si>
+    <t>QMVAR</t>
+  </si>
+  <si>
+    <t>SV1 issue</t>
+  </si>
+  <si>
+    <t>Find and fix the issue</t>
   </si>
 </sst>
 </file>
@@ -573,18 +594,18 @@
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="104.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="104.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -605,7 +626,7 @@
       </c>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D2" s="15" t="s">
         <v>10</v>
       </c>
@@ -615,8 +636,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:7" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:7" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="D4" s="18" t="s">
         <v>16</v>
       </c>
@@ -628,7 +649,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D5" s="18" t="s">
         <v>16</v>
       </c>
@@ -639,10 +660,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="D9" s="18" t="s">
         <v>16</v>
       </c>
@@ -656,37 +677,37 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C19" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="8"/>
       <c r="C20" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="9"/>
       <c r="C21" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" s="10"/>
       <c r="C22" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="11"/>
       <c r="C23" t="s">
         <v>11</v>
@@ -707,18 +728,18 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -741,7 +762,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -750,7 +771,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -759,46 +780,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -815,22 +836,22 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -853,64 +874,100 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="3"/>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6">
+        <v>43962</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6">
+        <v>43962</v>
+      </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="E3" s="1"/>
       <c r="F3" s="13"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="G3" s="16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6">
+        <v>43962</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -931,18 +988,18 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -965,7 +1022,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -974,7 +1031,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -983,46 +1040,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -1043,18 +1100,18 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1077,7 +1134,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1086,7 +1143,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1095,46 +1152,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -1155,18 +1212,18 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1189,7 +1246,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1210,7 +1267,7 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1219,46 +1276,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -1279,18 +1336,18 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1313,7 +1370,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1322,7 +1379,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1331,46 +1388,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -1391,18 +1448,18 @@
       <selection activeCell="F14" sqref="E14:F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1425,7 +1482,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1434,7 +1491,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1443,46 +1500,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -1499,22 +1556,22 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1537,7 +1594,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1558,7 +1615,7 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1567,46 +1624,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -1627,18 +1684,18 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1661,7 +1718,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1670,7 +1727,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1679,46 +1736,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>

--- a/REVER_DailyTracker_20200511.xlsx
+++ b/REVER_DailyTracker_20200511.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Document\WBS\DailyTracker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Monisha\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3AE5E13-9810-4DC4-ADAF-C7A164090964}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7DA1497-B379-4228-BFB5-E262BBF37D75}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{BDBCA639-774E-4870-AA16-72178DF9137C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -24,23 +24,17 @@
     <sheet name="Rahman" sheetId="14" r:id="rId9"/>
     <sheet name="Mathes" sheetId="13" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="181029" iterate="1"/>
+  <calcPr calcId="124519"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="22">
   <si>
     <t>Task</t>
   </si>
@@ -72,63 +66,41 @@
     <t>% of completion</t>
   </si>
   <si>
+    <t>RPA Dotnet</t>
+  </si>
+  <si>
     <t>[Backend] CRM</t>
   </si>
   <si>
     <t>Hold</t>
   </si>
   <si>
-    <t>DotnetAPP</t>
-  </si>
-  <si>
-    <t>Loginpage (Frontend)</t>
-  </si>
-  <si>
-    <t>1. Datass are fetched from CRM table and displayed the results in dropdownlist dynamically
-2. Customer type dropdownlist has been created using using enum and displayed in right order
-3. Working on onchange events to select all emailid based on customer types.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Visited  customer information from the contact us  page of hayaai website has been recorded in the database using
- PHP and MYQL
-</t>
-  </si>
-  <si>
-    <t>Hayaai website</t>
-  </si>
-  <si>
-    <t>Sending email is in progress</t>
-  </si>
-  <si>
-    <t>data insertion  and email sending are completed, whereas we have tested email sending using gmail.com for contacts.html.
-We are waiting for actual email settings for hayaai site.</t>
-  </si>
-  <si>
-    <t>mui store</t>
-  </si>
-  <si>
-    <t>CSS</t>
+    <t>Tables are created at RPA Sale database, whereas relationship is penidng, after discussing with Mr Bharathi san, it will be over,
+if any changes or modification can be done.</t>
+  </si>
+  <si>
+    <t>29/04/2020</t>
+  </si>
+  <si>
+    <t>Rever B2C</t>
+  </si>
+  <si>
+    <t>IF full flow with technician tracking integration</t>
+  </si>
+  <si>
+    <t>APK sent.</t>
   </si>
   <si>
     <t>MujiStore</t>
   </si>
   <si>
-    <t>Subnet Integration for Troubleshooting</t>
-  </si>
-  <si>
-    <t>Code Merging</t>
-  </si>
-  <si>
-    <t>Multi language integration get from Prabhu, Menu Integration from Ram</t>
-  </si>
-  <si>
-    <t>QMVAR</t>
-  </si>
-  <si>
-    <t>SV1 issue</t>
-  </si>
-  <si>
-    <t>Find and fix the issue</t>
+    <t xml:space="preserve">MujiStore - Authorization for Stores video </t>
+  </si>
+  <si>
+    <t>Hayaai</t>
+  </si>
+  <si>
+    <t>Hayyai - B2C layout Screens  design - Locate service centre, Change password, change mobile no,Add product</t>
   </si>
 </sst>
 </file>
@@ -138,7 +110,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-14009]yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,6 +131,22 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -200,7 +188,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -236,11 +224,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -257,25 +261,46 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{91AE6805-01E8-42B9-BB81-A87FD24491E0}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -586,26 +611,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E5FA210-E74C-4956-984B-F79AD1DC1D90}">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="104.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="104.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -626,91 +650,81 @@
       </c>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D2" s="15" t="s">
+    <row r="2" spans="1:7" s="19" customFormat="1" ht="28.95" customHeight="1">
+      <c r="A2" s="14">
+        <v>1</v>
+      </c>
+      <c r="B2" s="15">
+        <v>43950</v>
+      </c>
+      <c r="C2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:7" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="D4" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18" t="s">
+      <c r="D2" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="16">
+        <v>0.3</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
+      <c r="C22" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" s="8"/>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" s="9"/>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25" s="10"/>
+      <c r="C25" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D5" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="D9" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="4">
-        <v>90</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C19" s="12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" s="8"/>
-      <c r="C20" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B21" s="9"/>
-      <c r="C21" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B22" s="10"/>
-      <c r="C22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="11"/>
-      <c r="C23" t="s">
-        <v>11</v>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="B26" s="11"/>
+      <c r="C26" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -720,26 +734,25 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D97F208-7046-4CD3-9A69-1B907A35455F}">
-  <sheetPr codeName="Sheet10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -762,7 +775,267 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="7">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
+      <c r="C22" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" s="8"/>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" s="9"/>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25" s="10"/>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="B26" s="11"/>
+      <c r="C26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.6">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6">
+        <v>43950</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" ht="15.6">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6">
+        <v>43951</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
+      <c r="C22" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" s="8"/>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" s="9"/>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25" s="10"/>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="B26" s="11"/>
+      <c r="C26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -771,7 +1044,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -780,49 +1053,49 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -831,175 +1104,26 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A209DB9-CDA9-4C50-85C1-A0ADA7185189}">
-  <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:G26"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6">
-        <v>43962</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="7">
-        <v>0.4</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="6">
-        <v>43962</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="6">
-        <v>43962</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C22" s="12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="8"/>
-      <c r="C23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B24" s="9"/>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B25" s="10"/>
-      <c r="C25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B26" s="11"/>
-      <c r="C26" t="s">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B046864B-E8B4-4B7E-A91C-A0C80AD7F78D}">
-  <sheetPr codeName="Sheet3"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1022,7 +1146,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1031,7 +1155,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1040,49 +1164,49 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1091,27 +1215,139 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C523E988-B9D6-4503-8511-E851FE3ED345}">
-  <sheetPr codeName="Sheet4"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:G24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="43.2">
+      <c r="A2" s="21">
+        <v>1</v>
+      </c>
+      <c r="B2" s="22">
+        <v>43962</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="23">
+        <v>1</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" s="4" customFormat="1"/>
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="20" spans="2:3">
+      <c r="C20" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21" s="8"/>
+      <c r="C21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="B22" s="9"/>
+      <c r="C22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" s="10"/>
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" s="11"/>
+      <c r="C24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1134,7 +1370,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1143,7 +1379,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1152,49 +1388,49 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1203,27 +1439,26 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E32E0A3B-4CCA-47FE-89FF-779CF7651DEC}">
-  <sheetPr codeName="Sheet5"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F14" sqref="E14:F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1246,28 +1481,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6">
-        <v>43950</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="7">
-        <v>1</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>5</v>
-      </c>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1276,49 +1499,49 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1327,27 +1550,26 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0E19C8D-58A2-48BE-81ED-4B005621A3AA}">
-  <sheetPr codeName="Sheet6"/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1370,7 +1592,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1379,7 +1601,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1388,49 +1610,49 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1439,27 +1661,26 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5621F7FF-E06F-434B-89A6-3866EAA4F4E8}">
-  <sheetPr codeName="Sheet7"/>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="E14:F16"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1482,7 +1703,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1491,7 +1712,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1500,285 +1721,49 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED552E3A-902C-4700-B21A-33FAAF526D17}">
-  <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:G26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6">
-        <v>43962</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="7">
-        <v>0.6</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C22" s="12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="8"/>
-      <c r="C23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B24" s="9"/>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B25" s="10"/>
-      <c r="C25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B26" s="11"/>
-      <c r="C26" t="s">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{629DA847-E656-4D9F-9186-EF9F1F645789}">
-  <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:G26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C22" s="12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="8"/>
-      <c r="C23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B24" s="9"/>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B25" s="10"/>
-      <c r="C25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B26" s="11"/>
-      <c r="C26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/REVER_DailyTracker_20200511.xlsx
+++ b/REVER_DailyTracker_20200511.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Monisha\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mamatha\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7DA1497-B379-4228-BFB5-E262BBF37D75}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10C5805A-330A-45AC-B1A3-0A5D6BF3BDD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="25">
   <si>
     <t>Task</t>
   </si>
@@ -101,6 +101,15 @@
   </si>
   <si>
     <t>Hayyai - B2C layout Screens  design - Locate service centre, Change password, change mobile no,Add product</t>
+  </si>
+  <si>
+    <t>Haayai</t>
+  </si>
+  <si>
+    <t>Change Phoneno API</t>
+  </si>
+  <si>
+    <t>Warranties API</t>
   </si>
 </sst>
 </file>
@@ -244,7 +253,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -297,6 +306,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1108,8 +1118,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1148,20 +1158,32 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="3"/>
+      <c r="B2" s="6">
+        <v>43962</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="7">
+        <v>1</v>
+      </c>
+      <c r="F2" s="10"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="13"/>
+      <c r="D3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="26">
+        <v>1</v>
+      </c>
+      <c r="F3" s="10"/>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" s="4" customFormat="1"/>
@@ -1219,7 +1241,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
